--- a/FDCSM/management/excel_templates/initial_professors.xlsx
+++ b/FDCSM/management/excel_templates/initial_professors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zhangwn2\source\2025FDCS\FDCSM\management\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ZhangWeinian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF789B4-119F-4525-A8B1-94F442CF386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E59C0D-F6C4-4CE4-A47D-1E1EEDE1D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="9190" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="5820" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>数学专业可选人数</t>
   </si>
@@ -42,42 +42,6 @@
   </si>
   <si>
     <t>系统科学专业可选人数</t>
-  </si>
-  <si>
-    <t>pfs001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs_name1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs_pd1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs_name2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs_pd2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs_pd3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs_name3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfs003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>导师登录号码</t>
@@ -93,18 +57,6 @@
   </si>
   <si>
     <t>导师简介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello form pfs003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello form pfs002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello form pfs001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -458,16 +410,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -477,75 +429,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/FDCSM/management/excel_templates/initial_professors.xlsx
+++ b/FDCSM/management/excel_templates/initial_professors.xlsx
@@ -5,35 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ZhangWeinian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zhangwn2\source\2025FDCS\FDCSM\management\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E59C0D-F6C4-4CE4-A47D-1E1EEDE1D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C12BF1-6309-4AD7-94E2-50F9EC3A2140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="5820" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4140" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>导师登录号码</t>
+  </si>
+  <si>
+    <t>导师姓名</t>
+  </si>
+  <si>
+    <t>导师登录密码</t>
+  </si>
+  <si>
+    <t>导师简介</t>
+  </si>
   <si>
     <t>数学专业可选人数</t>
   </si>
@@ -44,20 +43,52 @@
     <t>系统科学专业可选人数</t>
   </si>
   <si>
-    <t>导师登录号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导师姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导师登录密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导师简介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>应用统计专业可选人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米科学与工程专业可选人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfs001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfs_name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfs_pd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello from pfs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfs002</t>
+  </si>
+  <si>
+    <t>pfs003</t>
+  </si>
+  <si>
+    <t>pfs_name2</t>
+  </si>
+  <si>
+    <t>pfs_name3</t>
+  </si>
+  <si>
+    <t>pfs_pd2</t>
+  </si>
+  <si>
+    <t>pfs_pd3</t>
+  </si>
+  <si>
+    <t>hello from pfs2</t>
+  </si>
+  <si>
+    <t>hello from pfs3</t>
   </si>
 </sst>
 </file>
@@ -73,14 +104,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -113,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,48 +421,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.58203125" customWidth="1"/>
+    <col min="8" max="8" width="19.08203125" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>